--- a/static/pdf/Lists.xlsx
+++ b/static/pdf/Lists.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="455" documentId="7C937C43F9F292B7FC34C73ED70C58113FEB47BD" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{F3C1857C-15C8-464E-8652-B16D7E32C846}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="177">
   <si>
     <t>Low-Level Vision</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,9 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeepLab: Semantic Image Segmentation with Deep Convolutional Nets, Atrous Convolution, and Fully Connected CRFs</t>
-  </si>
-  <si>
     <t>Stereo Matching</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BEGAN: Boundary Equlibrium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Robust Guided Image Filtering Using Nonconvex Potentials</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,18 +668,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StackGAN: Text to Photo-Realistic Image Synthesis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Learning to Discover Cross Domain Relations using Generative Adversarial Networks (DiscoGAN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ICCV17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Convolutional Neural Networks for No-Reference Image Quality Assessment</t>
   </si>
   <si>
@@ -707,13 +691,45 @@
   </si>
   <si>
     <t>Learning and Transferring Mid-Level Image Representations using Convolutional Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rethinking Atrous Convolution for Semantic Image Segmentation </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arxiv17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progressive Growing of GANs for Improved Quality, Stability, and Variation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StackGAN++: Realistic Image Synthesis with Stacked Generative Adversarial Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rxiv17</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -815,11 +831,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,35 +841,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,12 +853,43 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -963,23 +983,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1015,23 +1018,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1207,858 +1193,858 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="18.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="16.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="113.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E39" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="E46" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="3" t="s">
+      <c r="B52" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="6" t="s">
+      <c r="C52" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="11" t="s">
+      <c r="E60" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E62" s="6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="16" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="D63" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E63" s="6" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2110,7 +2096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
